--- a/data-raw/christidis.cotton.xlsx
+++ b/data-raw/christidis.cotton.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83777D28-11E7-418A-B038-730C664C2AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9672" activeTab="3"/>
+    <workbookView xWindow="2900" yWindow="1860" windowWidth="7590" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,9 +78,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -117,7 +118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -223,7 +224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,23 +366,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:P80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.23</v>
       </c>
@@ -431,7 +432,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.9</v>
       </c>
@@ -481,7 +482,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.97</v>
       </c>
@@ -531,7 +532,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -581,7 +582,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.99</v>
       </c>
@@ -631,7 +632,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.43</v>
       </c>
@@ -681,7 +682,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.51</v>
       </c>
@@ -731,7 +732,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.26</v>
       </c>
@@ -781,7 +782,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.1499999999999999</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.1299999999999999</v>
       </c>
@@ -881,7 +882,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.01</v>
       </c>
@@ -931,7 +932,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1399999999999999</v>
       </c>
@@ -981,7 +982,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.44</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.66</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.35</v>
       </c>
@@ -1187,16 +1188,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:Q60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.07</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.02</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.23</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.1100000000000001</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.04</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.01</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.1499999999999999</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.19</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.37</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.35</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.03</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.28</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.19</v>
       </c>
@@ -2002,16 +2003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.1599999999999999</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.98</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.1399999999999999</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.04</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.07</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.88</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.08</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.04</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.75</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.72</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.79</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.74</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.66</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.62</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.87</v>
       </c>
@@ -2817,16 +2818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.67</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.98</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.96</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.1599999999999999</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.07</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.67</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.84</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.75</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.61</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.61</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.62</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.77</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.1599999999999999</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.03</v>
       </c>
